--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AAF76B09-4242-A14E-8196-34E79639640C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F917FB60-21E7-DF4A-820F-59A6032473D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14800"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -40,30 +40,18 @@
     <t>Cambio</t>
   </si>
   <si>
-    <t>jueves, 26 de julio de 2018</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>jueves, 02 de agosto de 2018</t>
-  </si>
-  <si>
     <t>Meditaciones - 1</t>
   </si>
   <si>
-    <t>jueves, 09 de agosto de 2018</t>
-  </si>
-  <si>
     <t>Duda</t>
   </si>
   <si>
     <t>Williams Cap 2</t>
   </si>
   <si>
-    <t>jueves, 16 de agosto de 2018</t>
-  </si>
-  <si>
     <t>Meditaciones - 2</t>
   </si>
   <si>
@@ -73,81 +61,45 @@
     <t>X</t>
   </si>
   <si>
-    <t>jueves, 23 de agosto de 2018</t>
-  </si>
-  <si>
     <t>Cogito</t>
   </si>
   <si>
     <t>Williams Cap 3</t>
   </si>
   <si>
-    <t>jueves, 30 de agosto de 2018</t>
-  </si>
-  <si>
     <t>Meditaciones - 3</t>
   </si>
   <si>
-    <t>jueves, 06 de septiembre de 2018</t>
-  </si>
-  <si>
     <t>Nadler (2008)</t>
   </si>
   <si>
     <t>Jornadas</t>
   </si>
   <si>
-    <t>jueves, 13 de septiembre de 2018</t>
-  </si>
-  <si>
     <t>Meditaciones - 4</t>
   </si>
   <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>jueves, 20 de septiembre de 2018</t>
-  </si>
-  <si>
     <t>Juicio</t>
   </si>
   <si>
     <t>Williams Cap 6</t>
   </si>
   <si>
-    <t>jueves, 27 de septiembre de 2018</t>
-  </si>
-  <si>
     <t>Meditaciones - 5</t>
   </si>
   <si>
-    <t>jueves, 04 de octubre de 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kenny (1969) </t>
   </si>
   <si>
-    <t>jueves, 11 de octubre de 2018</t>
-  </si>
-  <si>
     <t>Meditaciones - 6</t>
   </si>
   <si>
-    <t>jueves, 18 de octubre de 2018</t>
-  </si>
-  <si>
     <t>Williams Cap 8</t>
   </si>
   <si>
-    <t>jueves, 25 de octubre de 2018</t>
-  </si>
-  <si>
-    <t>jueves, 01 de noviembre de 2018</t>
-  </si>
-  <si>
-    <t>jueves, 08 de noviembre de 2018</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -208,9 +160,6 @@
     <t>Relatoría</t>
   </si>
   <si>
-    <t>domingo, 11 de noviembre de 2018</t>
-  </si>
-  <si>
     <t>Cuarta meditación</t>
   </si>
   <si>
@@ -218,12 +167,63 @@
   </si>
   <si>
     <t>Sexta meditación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 26 de julio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 02 de agosto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 09 de agosto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 16 de agosto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 23 de agosto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 30 de agosto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 06 de septiembre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 13 de septiembre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 20 de septiembre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 27 de septiembre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 04 de octubre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 11 de octubre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 18 de octubre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 25 de octubre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 01 de noviembre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 08 de noviembre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">domingo, 11 de noviembre </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1066,16 +1066,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
@@ -1097,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1105,33 +1105,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>F7</f>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ref="G4:G7" si="0">F8</f>
@@ -1158,22 +1158,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1200,16 +1200,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1218,22 +1218,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>F12</f>
@@ -1242,22 +1242,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="str">
         <f>F3</f>
@@ -1266,16 +1266,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ref="G10:G12" si="1">F4</f>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1302,16 +1302,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1320,68 +1320,68 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F917FB60-21E7-DF4A-820F-59A6032473D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C881A83-5E52-934C-98BF-0BAF84F790E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -218,13 +218,106 @@
   </si>
   <si>
     <t xml:space="preserve">domingo, 11 de noviembre </t>
+  </si>
+  <si>
+    <t>fin del segundo corte</t>
+  </si>
+  <si>
+    <t>juanapal@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>lauracorma@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>katherinede@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>julianaocgu@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>pablopach@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>josepercas@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>sandraqugu@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>pabloriro@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>angelasaca@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>danielaveda@unisabana.edu.co</t>
+  </si>
+  <si>
+    <t>APARICIO ALDANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUAN CAMILO</t>
+  </si>
+  <si>
+    <t>CORAL MANCERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAURA NATALY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELGADO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KATHERINE</t>
+  </si>
+  <si>
+    <t>OCAMPO GUZMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JULIANA</t>
+  </si>
+  <si>
+    <t>PAEZ CHALJUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PABLO MIGUEL</t>
+  </si>
+  <si>
+    <t>PEREZ CASTIBLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>QUINTERO GUTIERREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANDRA LIZETH</t>
+  </si>
+  <si>
+    <t>RIVAS ROBLEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PABLO</t>
+  </si>
+  <si>
+    <t>SANCHEZ CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANGELA PATRICIA</t>
+  </si>
+  <si>
+    <t>VELEZ DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DANIELA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,6 +456,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="AJensonPro-Regular-Identity-H"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -706,12 +806,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1078,9 +1179,11 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1119,8 +1222,17 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1137,8 +1249,18 @@
         <f>F7</f>
         <v>E5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1155,8 +1277,18 @@
         <f t="shared" ref="G4:G7" si="0">F8</f>
         <v>E6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1179,8 +1311,18 @@
         <f t="shared" si="0"/>
         <v>E7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1197,8 +1339,18 @@
         <f t="shared" si="0"/>
         <v>E8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1215,8 +1367,18 @@
         <f t="shared" si="0"/>
         <v>E9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1239,8 +1401,18 @@
         <f>F12</f>
         <v>E10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1263,8 +1435,18 @@
         <f>F3</f>
         <v>E1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1281,8 +1463,18 @@
         <f t="shared" ref="G10:G12" si="1">F4</f>
         <v>E2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1299,8 +1491,18 @@
         <f t="shared" si="1"/>
         <v>E3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1318,7 +1520,7 @@
         <v>E4</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1328,8 +1530,11 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1340,7 +1545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1351,7 +1556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>63</v>
       </c>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C881A83-5E52-934C-98BF-0BAF84F790E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D686B-BBCE-4244-B6F3-8A1DE5AA1A44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -58,9 +58,6 @@
     <t>SoColFil</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Cogito</t>
   </si>
   <si>
@@ -100,36 +97,6 @@
     <t>Williams Cap 8</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
     <t>Cuerpo y mente</t>
   </si>
   <si>
@@ -187,12 +154,6 @@
     <t xml:space="preserve">jueves, 30 de agosto </t>
   </si>
   <si>
-    <t xml:space="preserve">jueves, 06 de septiembre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 13 de septiembre </t>
-  </si>
-  <si>
     <t xml:space="preserve">jueves, 20 de septiembre </t>
   </si>
   <si>
@@ -311,13 +272,52 @@
   </si>
   <si>
     <t xml:space="preserve"> DANIELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martes, 04 de septiembre </t>
+  </si>
+  <si>
+    <t>5pm</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miércoles 19 de septiembre </t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>Ángela</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Nataly</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>Daniela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,6 +460,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -762,7 +770,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -805,16 +813,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -848,6 +858,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1168,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1179,6 +1190,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
@@ -1200,18 +1212,21 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1223,46 +1238,46 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>F7</f>
-        <v>E5</v>
+        <f>F8</f>
+        <v>Daniela</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1271,325 +1286,327 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" ref="G4:G7" si="0">F8</f>
-        <v>E6</v>
+        <f>F9</f>
+        <v>Juliana</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>E7</v>
-      </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>E8</v>
+        <f>F10</f>
+        <v>Camilo</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>E9</v>
+        <f>F11</f>
+        <v>Sandra</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>F12</f>
-        <v>E10</v>
+        <v xml:space="preserve"> PABLO MIGUEL</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>F3</f>
-        <v>E1</v>
+        <f>F13</f>
+        <v>Pablo</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" ref="G10:G12" si="1">F4</f>
-        <v>E2</v>
+        <f>F3</f>
+        <v>Katherine</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>E3</v>
+        <f>F4</f>
+        <v>jose</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>E4</v>
+        <f>F6</f>
+        <v>Ángela</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>F7</f>
+        <v>Nataly</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M10" r:id="rId1" xr:uid="{7C7CFD58-927C-204D-A53B-E10C0BB79D22}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{C363098F-9893-464A-8196-4F922F901EAD}"/>
+    <hyperlink ref="M3" r:id="rId3" xr:uid="{F179D8CA-CD4E-DC44-BCD8-A6B951316518}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D686B-BBCE-4244-B6F3-8A1DE5AA1A44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA59320-2DA3-B442-9303-A16E641D9698}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temas" sheetId="1" r:id="rId1"/>
@@ -274,18 +274,12 @@
     <t xml:space="preserve"> DANIELA</t>
   </si>
   <si>
-    <t xml:space="preserve">martes, 04 de septiembre </t>
-  </si>
-  <si>
     <t>5pm</t>
   </si>
   <si>
     <t>Hora</t>
   </si>
   <si>
-    <t xml:space="preserve">miércoles 19 de septiembre </t>
-  </si>
-  <si>
     <t>Sandra</t>
   </si>
   <si>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t>Daniela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martes, 04 de septiembre, 5pm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">miércoles 19 de septiembre, 5pm </t>
   </si>
 </sst>
 </file>
@@ -1182,12 +1182,12 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1258,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>F8</f>
@@ -1286,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>F9</f>
@@ -1332,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="str">
         <f>F10</f>
@@ -1360,7 +1360,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>F11</f>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -1391,14 +1391,14 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>F12</f>
         <v xml:space="preserve"> PABLO MIGUEL</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1425,14 +1425,14 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" s="2" t="str">
         <f>F13</f>
         <v>Pablo</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -1456,7 +1456,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>F3</f>
@@ -1484,7 +1484,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>F4</f>
@@ -1530,7 +1530,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>F7</f>
@@ -1562,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14">

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA59320-2DA3-B442-9303-A16E641D9698}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF70884-205B-E44E-8738-4FC54B5651F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Fecha</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Meditaciones - 2</t>
   </si>
   <si>
-    <t>SoColFil</t>
-  </si>
-  <si>
     <t>Cogito</t>
   </si>
   <si>
@@ -311,6 +308,18 @@
   </si>
   <si>
     <t xml:space="preserve">miércoles 19 de septiembre, 5pm </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pablo Miguel</t>
+  </si>
+  <si>
+    <t>NO HAY SESIÓN</t>
+  </si>
+  <si>
+    <t>jueves, 09 de septiembre</t>
+  </si>
+  <si>
+    <t>Jueves, 13 de septiembre</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1195,7 +1204,7 @@
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,21 +1221,21 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1238,46 +1247,45 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>F8</f>
         <v>Daniela</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1286,320 +1294,352 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>F9</f>
+        <f>F11</f>
         <v>Juliana</v>
       </c>
       <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>F10</f>
+        <f>F12</f>
         <v>Camilo</v>
       </c>
       <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>F13</f>
+        <v>Sandra</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>F14</f>
+        <v xml:space="preserve"> Pablo Miguel</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>F15</f>
+        <v>Pablo</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="2" t="str">
-        <f>F11</f>
-        <v>Sandra</v>
-      </c>
-      <c r="J7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f>F12</f>
-        <v xml:space="preserve"> PABLO MIGUEL</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f>F13</f>
-        <v>Pablo</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="2" t="str">
+      <c r="G12" s="2" t="str">
         <f>F3</f>
         <v>Katherine</v>
       </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="2" t="str">
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="str">
         <f>F4</f>
         <v>jose</v>
       </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="2" t="str">
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="str">
         <f>F6</f>
         <v>Ángela</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="2" t="str">
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2" t="str">
         <f>F7</f>
         <v>Nataly</v>
       </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF70884-205B-E44E-8738-4FC54B5651F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD4DB3D-36BC-524F-AC26-7014F94B769F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,48 +133,6 @@
     <t>Sexta meditación</t>
   </si>
   <si>
-    <t xml:space="preserve">jueves, 26 de julio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 02 de agosto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 09 de agosto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 16 de agosto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 23 de agosto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 30 de agosto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 20 de septiembre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 27 de septiembre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 04 de octubre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 11 de octubre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 18 de octubre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 25 de octubre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 01 de noviembre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 08 de noviembre </t>
-  </si>
-  <si>
     <t xml:space="preserve">domingo, 11 de noviembre </t>
   </si>
   <si>
@@ -283,9 +241,6 @@
     <t>Katherine</t>
   </si>
   <si>
-    <t>jose</t>
-  </si>
-  <si>
     <t>Ángela</t>
   </si>
   <si>
@@ -320,6 +275,51 @@
   </si>
   <si>
     <t>Jueves, 13 de septiembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 26 de julio, 2pm </t>
+  </si>
+  <si>
+    <t>jueves, 02 de agosto, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 09 de agosto, 2pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves, 16 de agosto, 2pm </t>
+  </si>
+  <si>
+    <t>jueves, 23 de agosto, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 30 de agosto, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 20 de septiembre, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 27 de septiembre, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 04 de octubre, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 11 de octubre, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 18 de octubre, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 25 de octubre, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 01 de noviembre, 2pm</t>
+  </si>
+  <si>
+    <t>jueves, 08 de noviembre, 2pm</t>
+  </si>
+  <si>
+    <t>Jose</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:M109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1227,12 +1227,12 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1247,18 +1247,18 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -1267,25 +1267,25 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>F8</f>
         <v>Daniela</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1294,28 +1294,28 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>F11</f>
         <v>Juliana</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1327,18 +1327,18 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -1347,25 +1347,25 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2" t="str">
         <f>F12</f>
         <v>Camilo</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1374,25 +1374,25 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>F13</f>
         <v>Sandra</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1404,31 +1404,31 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>F14</f>
         <v xml:space="preserve"> Pablo Miguel</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1440,21 +1440,21 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1466,18 +1466,18 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -1489,28 +1489,28 @@
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>F15</f>
         <v>Pablo</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -1519,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>F3</f>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1537,16 +1537,16 @@
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>F4</f>
-        <v>jose</v>
+        <v>Jose</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1555,7 +1555,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>F6</f>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1573,19 +1573,19 @@
         <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>F7</f>
         <v>Nataly</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1605,12 +1605,12 @@
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD4DB3D-36BC-524F-AC26-7014F94B769F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6345549C-78BE-6245-9AED-78CAAEE92C6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>Fecha</t>
   </si>
@@ -229,9 +229,6 @@
     <t xml:space="preserve"> DANIELA</t>
   </si>
   <si>
-    <t>5pm</t>
-  </si>
-  <si>
     <t>Hora</t>
   </si>
   <si>
@@ -320,6 +317,12 @@
   </si>
   <si>
     <t>Jose</t>
+  </si>
+  <si>
+    <t>Socolfil</t>
+  </si>
+  <si>
+    <t>Sesión</t>
   </si>
 </sst>
 </file>
@@ -1188,464 +1191,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>G8</f>
+        <v>Daniela</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>G11</f>
+        <v>Juliana</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f>F8</f>
-        <v>Daniela</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f>F11</f>
-        <v>Juliana</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="H6" s="2" t="str">
+        <f>G12</f>
+        <v>Camilo</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f>F12</f>
-        <v>Camilo</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f>F13</f>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>G13</f>
         <v>Sandra</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>79</v>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f>F14</f>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>G14</f>
         <v xml:space="preserve"> Pablo Miguel</v>
       </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>62</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
         <v>64</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
         <v>66</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>G15</f>
+        <v>Pablo</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>G3</f>
+        <v>Katherine</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>G4</f>
+        <v>Jose</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="H14" s="2" t="str">
+        <f>G6</f>
+        <v>Ángela</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>G7</f>
+        <v>Nataly</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f>F15</f>
-        <v>Pablo</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <f>F3</f>
-        <v>Katherine</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f>F4</f>
-        <v>Jose</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f>F6</f>
-        <v>Ángela</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f>F7</f>
-        <v>Nataly</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M10" r:id="rId1" xr:uid="{7C7CFD58-927C-204D-A53B-E10C0BB79D22}"/>
-    <hyperlink ref="M5" r:id="rId2" xr:uid="{C363098F-9893-464A-8196-4F922F901EAD}"/>
-    <hyperlink ref="M3" r:id="rId3" xr:uid="{F179D8CA-CD4E-DC44-BCD8-A6B951316518}"/>
+    <hyperlink ref="N10" r:id="rId1" xr:uid="{7C7CFD58-927C-204D-A53B-E10C0BB79D22}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{C363098F-9893-464A-8196-4F922F901EAD}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{F179D8CA-CD4E-DC44-BCD8-A6B951316518}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6345549C-78BE-6245-9AED-78CAAEE92C6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C57495-13BA-4A45-8C85-731374CCF69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>Fecha</t>
   </si>
@@ -1194,7 +1201,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1282,7 +1289,7 @@
         <v>71</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>G8</f>
+        <f>G9</f>
         <v>Daniela</v>
       </c>
       <c r="K3" t="s">
@@ -1388,86 +1395,83 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
       <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H8" s="2" t="str">
         <f>G13</f>
         <v>Sandra</v>
       </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H9" s="2" t="str">
         <f>G14</f>
         <v xml:space="preserve"> Pablo Miguel</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="K9" t="s">
         <v>64</v>
@@ -1621,7 +1625,7 @@
         <v>73</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>G7</f>
+        <f>G8</f>
         <v>Nataly</v>
       </c>
       <c r="I15" t="s">

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C57495-13BA-4A45-8C85-731374CCF69E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F195D4-CA09-214B-848D-6323EBF452C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>NO HAY SESIÓN</t>
   </si>
   <si>
-    <t>jueves, 09 de septiembre</t>
-  </si>
-  <si>
     <t>Jueves, 13 de septiembre</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>Sesión</t>
+  </si>
+  <si>
+    <t>jueves, 06 de septiembre</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1216,7 +1216,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1307,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1316,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>G11</f>
@@ -1337,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1399,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1488,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
@@ -1550,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1571,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1592,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -1637,7 +1637,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1651,7 +1651,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1668,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -1682,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F195D4-CA09-214B-848D-6323EBF452C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3863309-EA4B-8241-A2AE-1FF70856D04D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temas" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,9 +267,6 @@
     <t xml:space="preserve">martes, 04 de septiembre, 5pm </t>
   </si>
   <si>
-    <t xml:space="preserve">miércoles 19 de septiembre, 5pm </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pablo Miguel</t>
   </si>
   <si>
@@ -330,6 +328,51 @@
   </si>
   <si>
     <t>jueves, 06 de septiembre</t>
+  </si>
+  <si>
+    <t>Control de lectura 2</t>
+  </si>
+  <si>
+    <t>Comentario relatoría 2</t>
+  </si>
+  <si>
+    <t>Control de lectura 3</t>
+  </si>
+  <si>
+    <t>Comentario relatoría 3</t>
+  </si>
+  <si>
+    <t>Control de lectura 4</t>
+  </si>
+  <si>
+    <t>Comentario relatoría 4</t>
+  </si>
+  <si>
+    <t>Control de lectura 5</t>
+  </si>
+  <si>
+    <t>Comentario relatoría 5</t>
+  </si>
+  <si>
+    <t>Total controles</t>
+  </si>
+  <si>
+    <t>Total comentarios</t>
+  </si>
+  <si>
+    <t>Nota controles</t>
+  </si>
+  <si>
+    <t>Nota comentarios</t>
+  </si>
+  <si>
+    <t>Nota primer corte</t>
+  </si>
+  <si>
+    <t>Revisar nota: suber 4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martes 18 de septiembre, 5pm </t>
   </si>
 </sst>
 </file>
@@ -492,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +713,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -834,7 +889,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -842,6 +897,18 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1201,7 +1268,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1216,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1248,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1277,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1307,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1316,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>G11</f>
@@ -1337,16 +1404,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1369,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1399,10 +1466,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1455,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1488,10 +1555,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1520,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -1550,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1571,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1592,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1601,7 +1668,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="2" t="str">
         <f>G6</f>
@@ -1613,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -1637,7 +1704,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1651,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1668,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -1682,7 +1749,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1719,4 +1786,551 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE0182-F2D3-DB47-BD7C-C13A5CEA4D34}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51">
+      <c r="A1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="34">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUM(C2,E2,G2,I2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUM(D2,F2,H2,J2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <f>AVERAGE(M2,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="34">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3">
+        <f>SUM(C3,E3,G3,I3)</f>
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <f>SUM(D3,F3,H3,J3)</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>4.5</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O11" si="0">AVERAGE(M3,N3)</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="34">
+      <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="1">SUM(C4,E4,G4,I4)</f>
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L11" si="2">SUM(D4,F4,H4,J4)</f>
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="34">
+      <c r="A5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4.5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="34">
+      <c r="A6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>4.5</v>
+      </c>
+      <c r="N6">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="51">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>4.5</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="34">
+      <c r="A8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>3.5</v>
+      </c>
+      <c r="N8">
+        <v>4.5</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="34">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4.5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34">
+      <c r="A10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>4.5</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="34">
+      <c r="A11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>4.5</v>
+      </c>
+      <c r="N11">
+        <v>3.5</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="5"/>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="K18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3863309-EA4B-8241-A2AE-1FF70856D04D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C6E14-B20E-EC48-B614-8D4C2D77C825}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,18 +17,11 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>Fecha</t>
   </si>
@@ -1268,7 +1261,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1711,6 +1704,9 @@
       </c>
       <c r="D16" t="s">
         <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8">

--- a/listatemas.xlsx
+++ b/listatemas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanespejo/Documents/reveal/Descartes2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C6E14-B20E-EC48-B614-8D4C2D77C825}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE94A56-1E3D-1D43-B4D6-7177A9F482B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Sexta meditación</t>
   </si>
   <si>
-    <t xml:space="preserve">domingo, 11 de noviembre </t>
-  </si>
-  <si>
     <t>fin del segundo corte</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t xml:space="preserve">martes 18 de septiembre, 5pm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunes, 12 de noviembre, 23:59 </t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1276,7 +1276,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1323,13 +1323,13 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1337,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1346,20 +1346,20 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>G9</f>
         <v>Daniela</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1376,20 +1376,20 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>G11</f>
         <v>Juliana</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1397,16 +1397,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1415,13 +1415,13 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1438,20 +1438,20 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="str">
         <f>G12</f>
         <v>Camilo</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1459,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1471,13 +1471,13 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1494,20 +1494,20 @@
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="str">
         <f>G13</f>
         <v>Sandra</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1515,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1527,20 +1527,20 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="str">
         <f>G14</f>
         <v xml:space="preserve"> Pablo Miguel</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1548,10 +1548,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1566,13 +1566,13 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -1589,20 +1589,20 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>G15</f>
         <v>Pablo</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1610,7 +1610,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1619,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>G3</f>
@@ -1631,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1640,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2" t="str">
         <f>G4</f>
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1661,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="str">
         <f>G6</f>
@@ -1673,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -1682,14 +1682,14 @@
         <v>21</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="str">
         <f>G8</f>
         <v>Nataly</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1697,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1706,7 +1706,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1714,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1723,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1731,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -1745,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -1802,51 +1802,51 @@
     <row r="1" spans="1:16" ht="51">
       <c r="A1" s="5"/>
       <c r="C1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4">
@@ -1983,10 +1983,10 @@
     </row>
     <row r="5" spans="1:16" ht="34">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="6" spans="1:16" ht="34">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="7" spans="1:16" ht="51">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="8" spans="1:16" ht="34">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2155,15 +2155,15 @@
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="34">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="A11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>1</v>
